--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="329">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1249,15 +1249,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Fullname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>制度別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1805,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1858,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1967,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>72</v>
@@ -1988,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>101</v>
@@ -3202,7 +3206,7 @@
         <v>196</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3C3B0-1836-4BD6-8B5E-D6161099680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -160,11 +161,6 @@
     <t>業務人員任用狀況碼</t>
   </si>
   <si>
-    <t>35為15日薪
-不是35為非15日薪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y:現職</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1132,6 +1128,131 @@
   </si>
   <si>
     <t>AgLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CenterCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFullname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCenterCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFullnameLike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNo % </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CenterCode = , AND AgCurInd = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCenterCodeAndAgCurInd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNoLikeAndAgCurInd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNo % , AND AgCurInd = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFullnameLikeAndAgCurInd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullname % , AND AgCurInd = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEmployeeNoAndAgCurInd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNo &gt;= ,AND EmployeeNo &lt;= , AND AgCurInd = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgStatusCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgCurInd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentId =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位簡稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterShortName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterCode2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35:15日薪
+其他:15日薪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1143,132 +1264,13 @@
 4:留職停薪
 5:退休離職
 9:未報聘/內勤</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子郵件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CenterCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findFullname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCenterCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findFullnameLike</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeNo % </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CenterCode = , AND AgCurInd = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCenterCodeAndAgCurInd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeNoLikeAndAgCurInd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeNo % , AND AgCurInd = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findFullnameLikeAndAgCurInd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Fullname % , AND AgCurInd = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findEmployeeNoAndAgCurInd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeNo &gt;= ,AND EmployeeNo &lt;= , AND AgCurInd = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgStatusCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgCurInd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentId =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位簡稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CenterCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CenterShortName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CenterCode2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>制度別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1505,7 +1507,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1596,6 +1598,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1631,6 +1650,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1806,11 +1842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1830,10 +1866,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1843,7 +1879,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1858,7 +1894,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1895,7 +1931,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1952,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>3</v>
@@ -1971,10 +2007,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1984,7 +2020,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1992,20 +2028,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2013,13 +2049,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="18">
         <v>10</v>
@@ -2032,13 +2068,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -2051,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -2070,13 +2106,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="18">
         <v>10</v>
@@ -2089,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="18">
         <v>20</v>
@@ -2108,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -2127,13 +2163,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -2146,13 +2182,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="18">
         <v>20</v>
@@ -2165,10 +2201,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
@@ -2184,13 +2220,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22" s="18">
         <v>20</v>
@@ -2203,10 +2239,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -2222,13 +2258,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -2241,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>20</v>
@@ -2254,7 +2290,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2262,10 +2298,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2281,10 +2317,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -2300,10 +2336,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
@@ -2319,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
@@ -2338,20 +2374,20 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,10 +2395,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>3</v>
@@ -2378,10 +2414,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>3</v>
@@ -2397,13 +2433,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -2416,10 +2452,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
@@ -2435,7 +2471,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>21</v>
@@ -2448,7 +2484,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2456,20 +2492,20 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2477,13 +2513,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -2496,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>3</v>
@@ -2515,13 +2551,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E39" s="18">
         <v>8</v>
@@ -2534,10 +2570,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>3</v>
@@ -2553,10 +2589,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>3</v>
@@ -2572,10 +2608,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>3</v>
@@ -2591,10 +2627,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>3</v>
@@ -2610,10 +2646,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
@@ -2629,10 +2665,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
@@ -2648,13 +2684,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2667,10 +2703,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>3</v>
@@ -2686,10 +2722,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>3</v>
@@ -2705,13 +2741,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="18">
         <v>10</v>
@@ -2724,10 +2760,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>3</v>
@@ -2743,13 +2779,13 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="18">
         <v>5</v>
@@ -2764,13 +2800,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="18">
         <v>5</v>
@@ -2783,10 +2819,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>3</v>
@@ -2802,10 +2838,10 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>3</v>
@@ -2821,13 +2857,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E55" s="18">
         <v>8</v>
@@ -2840,13 +2876,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E56" s="18">
         <v>8</v>
@@ -2859,13 +2895,13 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E57" s="18">
         <v>8</v>
@@ -2878,10 +2914,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>3</v>
@@ -2897,10 +2933,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>3</v>
@@ -2916,10 +2952,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>3</v>
@@ -2935,13 +2971,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E61" s="18">
         <v>8</v>
@@ -2954,13 +2990,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="18">
         <v>5</v>
@@ -2973,13 +3009,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="18">
         <v>5</v>
@@ -2992,10 +3028,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>3</v>
@@ -3011,13 +3047,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E65" s="18">
         <v>8</v>
@@ -3030,13 +3066,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" s="18">
         <v>8</v>
@@ -3049,10 +3085,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>3</v>
@@ -3068,13 +3104,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E68" s="18">
         <v>8</v>
@@ -3087,10 +3123,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>3</v>
@@ -3106,10 +3142,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -3125,10 +3161,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>3</v>
@@ -3138,7 +3174,7 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3146,10 +3182,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>3</v>
@@ -3165,10 +3201,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>3</v>
@@ -3184,10 +3220,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>3</v>
@@ -3203,10 +3239,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>
@@ -3222,10 +3258,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>3</v>
@@ -3241,10 +3277,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>3</v>
@@ -3260,10 +3296,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>3</v>
@@ -3279,10 +3315,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>3</v>
@@ -3298,10 +3334,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>3</v>
@@ -3317,10 +3353,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>3</v>
@@ -3336,10 +3372,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>3</v>
@@ -3355,10 +3391,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>3</v>
@@ -3374,10 +3410,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>3</v>
@@ -3393,10 +3429,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>3</v>
@@ -3406,7 +3442,7 @@
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3414,10 +3450,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>3</v>
@@ -3433,13 +3469,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E87" s="18">
         <v>100</v>
@@ -3452,13 +3488,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E88" s="18">
         <v>8</v>
@@ -3471,13 +3507,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E89" s="18">
         <v>8</v>
@@ -3490,13 +3526,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E90" s="18">
         <v>8</v>
@@ -3509,13 +3545,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E91" s="18">
         <v>8</v>
@@ -3528,10 +3564,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>3</v>
@@ -3547,10 +3583,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>3</v>
@@ -3566,13 +3602,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E94" s="18">
         <v>8</v>
@@ -3585,13 +3621,13 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95" s="18">
         <v>5</v>
@@ -3604,10 +3640,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>3</v>
@@ -3623,10 +3659,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>3</v>
@@ -3642,10 +3678,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>3</v>
@@ -3661,10 +3697,10 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>3</v>
@@ -3680,10 +3716,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -3699,10 +3735,10 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>3</v>
@@ -3718,13 +3754,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E102" s="18">
         <v>10</v>
@@ -3737,10 +3773,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>3</v>
@@ -3756,10 +3792,10 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>3</v>
@@ -3775,13 +3811,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E105" s="18">
         <v>8</v>
@@ -3794,10 +3830,10 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>3</v>
@@ -3813,10 +3849,10 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>3</v>
@@ -3832,13 +3868,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E108" s="18">
         <v>8</v>
@@ -3851,20 +3887,20 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E109" s="18">
         <v>8</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3872,10 +3908,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>3</v>
@@ -3885,7 +3921,7 @@
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3893,20 +3929,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3914,10 +3950,10 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>3</v>
@@ -3933,13 +3969,13 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" s="18">
         <v>5</v>
@@ -3952,13 +3988,13 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E114" s="18">
         <v>5</v>
@@ -3971,13 +4007,13 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" s="18">
         <v>5</v>
@@ -3990,10 +4026,10 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>3</v>
@@ -4009,10 +4045,10 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>3</v>
@@ -4028,10 +4064,10 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>3</v>
@@ -4047,13 +4083,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4066,13 +4102,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4085,13 +4121,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4104,13 +4140,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4123,13 +4159,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4142,13 +4178,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4161,13 +4197,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4180,13 +4216,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4199,13 +4235,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4218,13 +4254,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4237,10 +4273,10 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>3</v>
@@ -4256,10 +4292,10 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>3</v>
@@ -4275,10 +4311,10 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>3</v>
@@ -4294,10 +4330,10 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>3</v>
@@ -4313,10 +4349,10 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>3</v>
@@ -4332,13 +4368,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4351,10 +4387,10 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>3</v>
@@ -4370,10 +4406,10 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>3</v>
@@ -4389,10 +4425,10 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>3</v>
@@ -4408,13 +4444,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4427,13 +4463,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4446,10 +4482,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4465,13 +4501,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>280</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4482,10 +4518,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>282</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4501,13 +4537,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>284</v>
-      </c>
       <c r="D143" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4518,10 +4554,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4550,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
@@ -4579,109 +4615,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3C3B0-1836-4BD6-8B5E-D6161099680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F0A208-EFC8-49E4-A720-4919D442011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="328">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -731,10 +731,6 @@
   </si>
   <si>
     <t>AgType1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1845,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1875,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1894,7 +1890,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1930,9 +1926,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2007,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>71</v>
@@ -2028,20 +2022,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2049,13 +2043,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="18">
         <v>10</v>
@@ -2068,13 +2062,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -2087,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>106</v>
@@ -2106,13 +2100,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="18">
         <v>10</v>
@@ -2125,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="18">
         <v>20</v>
@@ -2144,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>109</v>
@@ -2163,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -2182,13 +2176,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="18">
         <v>20</v>
@@ -2201,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>112</v>
@@ -2220,13 +2214,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" s="18">
         <v>20</v>
@@ -2239,7 +2233,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>114</v>
@@ -2258,13 +2252,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -2290,7 +2284,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2298,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2380,14 +2374,14 @@
         <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2395,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>30</v>
@@ -2439,7 +2433,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -2471,7 +2465,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>21</v>
@@ -2484,7 +2478,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2498,14 +2492,14 @@
         <v>159</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2519,7 +2513,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -2557,7 +2551,7 @@
         <v>36</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" s="18">
         <v>8</v>
@@ -2646,7 +2640,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>41</v>
@@ -2690,7 +2684,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2863,7 +2857,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E55" s="18">
         <v>8</v>
@@ -2882,7 +2876,7 @@
         <v>53</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E56" s="18">
         <v>8</v>
@@ -2901,7 +2895,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E57" s="18">
         <v>8</v>
@@ -2977,7 +2971,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" s="18">
         <v>8</v>
@@ -3053,7 +3047,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" s="18">
         <v>8</v>
@@ -3072,7 +3066,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E66" s="18">
         <v>8</v>
@@ -3110,7 +3104,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" s="18">
         <v>8</v>
@@ -3145,7 +3139,7 @@
         <v>192</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -3161,7 +3155,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>67</v>
@@ -3174,7 +3168,7 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3201,7 +3195,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>69</v>
@@ -3242,7 +3236,7 @@
         <v>195</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>
@@ -3258,7 +3252,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>72</v>
@@ -3277,7 +3271,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>73</v>
@@ -3296,7 +3290,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>74</v>
@@ -3315,7 +3309,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>75</v>
@@ -3334,7 +3328,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>76</v>
@@ -3353,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>77</v>
@@ -3372,7 +3366,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>78</v>
@@ -3391,7 +3385,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>79</v>
@@ -3410,7 +3404,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>80</v>
@@ -3429,7 +3423,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>146</v>
@@ -3450,7 +3444,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>81</v>
@@ -3469,13 +3463,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E87" s="18">
         <v>100</v>
@@ -3488,13 +3482,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E88" s="18">
         <v>8</v>
@@ -3507,13 +3501,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E89" s="18">
         <v>8</v>
@@ -3526,13 +3520,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E90" s="18">
         <v>8</v>
@@ -3545,13 +3539,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" s="18">
         <v>8</v>
@@ -3564,7 +3558,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>87</v>
@@ -3583,7 +3577,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>88</v>
@@ -3602,13 +3596,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E94" s="18">
         <v>8</v>
@@ -3621,7 +3615,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>90</v>
@@ -3640,7 +3634,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>91</v>
@@ -3659,7 +3653,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>92</v>
@@ -3678,7 +3672,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>93</v>
@@ -3697,7 +3691,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>94</v>
@@ -3716,7 +3710,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>95</v>
@@ -3735,7 +3729,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>96</v>
@@ -3754,7 +3748,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>97</v>
@@ -3773,7 +3767,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>98</v>
@@ -3792,7 +3786,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>99</v>
@@ -3811,13 +3805,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E105" s="18">
         <v>8</v>
@@ -3830,7 +3824,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>102</v>
@@ -3849,7 +3843,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>103</v>
@@ -3868,13 +3862,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E108" s="18">
         <v>8</v>
@@ -3887,20 +3881,20 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E109" s="18">
         <v>8</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3908,7 +3902,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>116</v>
@@ -3929,13 +3923,13 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -3950,7 +3944,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>118</v>
@@ -3969,7 +3963,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>119</v>
@@ -3988,7 +3982,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>120</v>
@@ -4007,7 +4001,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>121</v>
@@ -4026,7 +4020,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>122</v>
@@ -4045,7 +4039,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>123</v>
@@ -4064,7 +4058,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>124</v>
@@ -4083,13 +4077,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4102,13 +4096,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4121,13 +4115,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4140,13 +4134,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>128</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4159,13 +4153,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4178,13 +4172,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4197,13 +4191,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4216,13 +4210,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4235,13 +4229,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4254,13 +4248,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4273,7 +4267,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>135</v>
@@ -4292,7 +4286,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>136</v>
@@ -4311,7 +4305,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>137</v>
@@ -4330,7 +4324,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>138</v>
@@ -4349,7 +4343,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C133" s="18" t="s">
         <v>139</v>
@@ -4368,13 +4362,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C134" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4387,7 +4381,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>141</v>
@@ -4406,7 +4400,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>142</v>
@@ -4425,7 +4419,7 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>143</v>
@@ -4444,13 +4438,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>144</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4463,13 +4457,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>145</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4482,10 +4476,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4501,13 +4495,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4518,10 +4512,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4537,13 +4531,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>283</v>
-      </c>
       <c r="D143" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4554,10 +4548,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4615,109 +4609,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
